--- a/辅助2/进度.xlsx
+++ b/辅助2/进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>列表名称</t>
   </si>
@@ -261,15 +261,39 @@
   <si>
     <t>报表的动态页面/单个</t>
   </si>
+  <si>
+    <t>新增动态页面：</t>
+  </si>
+  <si>
+    <t>注册客户列表</t>
+  </si>
+  <si>
+    <t>工位客户列表</t>
+  </si>
+  <si>
+    <t>注册客户续租列表</t>
+  </si>
+  <si>
+    <t>工位客户续租列表</t>
+  </si>
+  <si>
+    <t>费用设置列表</t>
+  </si>
+  <si>
+    <t>类型设置页面</t>
+  </si>
+  <si>
+    <t>财务客户</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -299,31 +323,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,52 +454,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,36 +466,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -464,31 +488,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,19 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,127 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,50 +693,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,17 +721,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,16 +746,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,137 +812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,7 +966,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1292,10 +1319,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="2"/>
@@ -1578,22 +1605,22 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1620,6 +1647,53 @@
       <c r="B48" s="1" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:2">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B53" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B54" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B55" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B56" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B57" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B58" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="2:2">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:2">
+      <c r="B60" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/辅助2/进度.xlsx
+++ b/辅助2/进度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>列表名称</t>
   </si>
@@ -265,25 +265,31 @@
     <t>新增动态页面：</t>
   </si>
   <si>
-    <t>注册客户列表</t>
-  </si>
-  <si>
-    <t>工位客户列表</t>
-  </si>
-  <si>
-    <t>注册客户续租列表</t>
-  </si>
-  <si>
-    <t>工位客户续租列表</t>
-  </si>
-  <si>
-    <t>费用设置列表</t>
-  </si>
-  <si>
-    <t>类型设置页面</t>
-  </si>
-  <si>
-    <t>财务客户</t>
+    <t>注册客户列表        /Customer/RegisterCustomer</t>
+  </si>
+  <si>
+    <t>工位客户列表        /Customer/WorkCustomer</t>
+  </si>
+  <si>
+    <t>注册客户续租列表    /Customer/RegisterRerent</t>
+  </si>
+  <si>
+    <t>工位客户续租列表    /Customer/WorkRerent</t>
+  </si>
+  <si>
+    <t>费用设置列表        /Finance/ExpenseSetting</t>
+  </si>
+  <si>
+    <t>类型设置页面        /SystemManagerment/TypeGroupSet</t>
+  </si>
+  <si>
+    <t>财务客户            /Finance/CustomerList</t>
+  </si>
+  <si>
+    <t>修改layui数据表格增加数字类型源码</t>
+  </si>
+  <si>
+    <t>注册客户、工位客户续租、注册客户、工位客户预制 复制页面，一共算2个   /Budget/Register 、/Budget/Work、...</t>
   </si>
 </sst>
 </file>
@@ -331,6 +337,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -346,9 +366,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,80 +403,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,18 +465,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -488,49 +494,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,55 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,73 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,6 +703,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -712,41 +729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -758,21 +740,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,16 +761,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,133 +818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1319,16 +1325,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="73.0333333333333" customWidth="1"/>
+    <col min="2" max="2" width="141.175" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:2">
@@ -1604,6 +1610,7 @@
         <v>64</v>
       </c>
     </row>
+    <row r="36" s="2" customFormat="1" customHeight="1"/>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>65</v>
@@ -1624,6 +1631,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="41" customHeight="1" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:2">
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="1">
         <v>5000</v>
@@ -1690,10 +1705,19 @@
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="2:2">
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" customHeight="1" spans="2:2">
-      <c r="B60" s="8"/>
+      <c r="B59" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
